--- a/input/test/MatrixEngineTemplate_14.xlsx
+++ b/input/test/MatrixEngineTemplate_14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="20" windowWidth="26080" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2140" yWindow="20" windowWidth="26080" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="6" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>System Dynamics Fitness</t>
-  </si>
-  <si>
     <t>a + b</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>a - b - c</t>
+  </si>
+  <si>
+    <t>User Equation Fitness</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -694,15 +694,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>43</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>0.1</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5">
         <v>0.4</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5">
         <v>0.33333000000000002</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <v>0.33333000000000002</v>
@@ -806,7 +806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -821,15 +823,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -837,10 +839,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -851,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -859,13 +861,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -873,7 +875,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
@@ -881,10 +883,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -918,21 +920,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <f>1/3</f>
@@ -949,13 +951,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:E4" si="1">1/3</f>
+        <f t="shared" ref="C3:C4" si="1">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D3" s="2">
@@ -972,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
@@ -1018,52 +1020,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <f>1/3</f>
+        <f t="shared" ref="C2:E4" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D3" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E3" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1072,18 +1074,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E4" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1118,52 +1120,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <f>1/3</f>
+        <f t="shared" ref="C2:E4" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D3" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E3" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1172,18 +1174,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E4" s="2">
-        <f>1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
